--- a/public/file/template/temp_reporte_planpagos.xlsx
+++ b/public/file/template/temp_reporte_planpagos.xlsx
@@ -90,9 +90,6 @@
     <t>PLAN PAGOS</t>
   </si>
   <si>
-    <t>[a.fecha_programado;block=tbs:row;ope=tbs:date]</t>
-  </si>
-  <si>
     <t>[a.monto_programado;ope=tbs:num]</t>
   </si>
   <si>
@@ -163,6 +160,131 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>GRUPO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [onshow.grupo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LINEA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [onshow.linea]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESTACION:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [onshow.estacion]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PRODUCTO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[onshow.producto]</t>
+    </r>
+  </si>
+  <si>
+    <t>[a.nro_deposito_mora]</t>
+  </si>
+  <si>
+    <t>[a.monto_deposito_mora]</t>
+  </si>
+  <si>
+    <t>[a.fecha_deposito_mora]</t>
+  </si>
+  <si>
+    <t>[a.monto_deposito]</t>
+  </si>
+  <si>
+    <t>[a.fecha_deposito]</t>
+  </si>
+  <si>
+    <t>[a.fecha_factura]</t>
+  </si>
+  <si>
+    <t>[a.monto_factura]</t>
+  </si>
+  <si>
+    <t>[a.factura_total;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[a.deposito_total;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[a.mora_total;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">FECHA INICIO: </t>
     </r>
     <r>
@@ -192,129 +314,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GRUPO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [onshow.grupo]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LINEA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [onshow.linea]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ESTACION:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [onshow.estacion]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PRODUCTO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[onshow.producto]</t>
-    </r>
-  </si>
-  <si>
-    <t>[a.nro_deposito_mora]</t>
-  </si>
-  <si>
-    <t>[a.monto_deposito_mora]</t>
-  </si>
-  <si>
-    <t>[a.fecha_deposito_mora]</t>
-  </si>
-  <si>
-    <t>[a.monto_deposito]</t>
-  </si>
-  <si>
-    <t>[a.fecha_deposito]</t>
-  </si>
-  <si>
-    <t>[a.fecha_factura]</t>
-  </si>
-  <si>
-    <t>[a.monto_factura]</t>
-  </si>
-  <si>
-    <t>[a.factura_total;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.deposito_total;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[a.mora_total;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>TOTALES</t>
+    <t>[a.fecha_programado;block=tbs:row]</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -493,9 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -510,6 +507,18 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,14 +528,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -563,15 +566,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>885825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>877888</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1588</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -593,7 +596,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11468100" y="28575"/>
+          <a:off x="12230100" y="0"/>
           <a:ext cx="1135063" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -896,7 +899,7 @@
   <dimension ref="B1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,41 +910,37 @@
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
-    <row r="2" spans="2:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="2:17" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
@@ -949,73 +948,73 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1059,77 +1058,77 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="H9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="Q9" t="s">
         <v>33</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15">
+      <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14">
         <f>SUM(O9:O100)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
         <f>SUM(P9:P100)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14">
         <f>SUM(Q9:Q100)</f>
         <v>0</v>
       </c>
@@ -1137,7 +1136,12 @@
     <row r="11" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E1:N2"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="E1:L2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D4:H4"/>
@@ -1146,11 +1150,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:M5"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template/temp_reporte_planpagos.xlsx
+++ b/public/file/template/temp_reporte_planpagos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>This sheet was hidden in the template, and it becomes visible.</t>
   </si>
@@ -315,13 +315,28 @@
   </si>
   <si>
     <t>[a.fecha_programado;block=tbs:row]</t>
+  </si>
+  <si>
+    <t>[c.tipo;block=tbs:row]</t>
+  </si>
+  <si>
+    <t>[c.nro_deposito]</t>
+  </si>
+  <si>
+    <t>[c.fecha_deposito]</t>
+  </si>
+  <si>
+    <t>[c.monto_deposito]</t>
+  </si>
+  <si>
+    <t>DEPOSITOS GARANTIA Y DERECHO DE LLAVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +387,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -414,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -457,6 +480,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -469,7 +518,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,6 +556,25 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="8"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,17 +587,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -572,7 +634,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1588</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
@@ -896,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q11"/>
+  <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,16 +978,16 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="2:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -933,14 +995,14 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="2:17" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
@@ -948,73 +1010,73 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="26"/>
+      <c r="K4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="19" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1058,7 +1120,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1115,13 +1177,13 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14">
-        <f>SUM(O9:O100)</f>
+        <f>SUM(O9:O101)</f>
         <v>0</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14">
-        <f>SUM(P9:P100)</f>
+        <f>SUM(P9:P101)</f>
         <v>0</v>
       </c>
       <c r="J10" s="14"/>
@@ -1129,18 +1191,62 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14">
-        <f>SUM(Q9:Q100)</f>
+        <f>SUM(Q9:Q101)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
     <mergeCell ref="E1:L2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -1150,6 +1256,11 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:M5"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
